--- a/Backup/【交通】劉春杉.xlsx
+++ b/Backup/【交通】劉春杉.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LIUCHUNSHAN/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LIUCHUNSHAN/Desktop/Sam/TechnologyStack/Backup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553E171B-EB0A-D348-AB75-20DBC587FF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7705E24C-1BC5-6B4B-A3C4-EE701701526D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10560" yWindow="500" windowWidth="15960" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>　　　　　　　　氏名：　劉春杉</t>
   </si>
@@ -82,7 +82,7 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>　　　2022　年　4　月分経費</t>
+    <t>　　　2022　年　5　月分経費</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -295,7 +295,17 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1504,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.25" customHeight="1"/>
@@ -1590,7 +1600,7 @@
     </row>
     <row r="9" spans="1:5" ht="31.5" customHeight="1">
       <c r="A9" s="11">
-        <v>44652</v>
+        <v>44683</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="20" t="s">
@@ -1605,7 +1615,7 @@
     </row>
     <row r="10" spans="1:5" ht="18.75" customHeight="1">
       <c r="A10" s="11">
-        <v>44655</v>
+        <v>44687</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="20" t="s">
@@ -1620,7 +1630,7 @@
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1">
       <c r="A11" s="11">
-        <v>44656</v>
+        <v>44690</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="20" t="s">
@@ -1635,7 +1645,7 @@
     </row>
     <row r="12" spans="1:5" ht="21" customHeight="1">
       <c r="A12" s="14">
-        <v>44662</v>
+        <v>44691</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="20" t="s">
@@ -1650,7 +1660,7 @@
     </row>
     <row r="13" spans="1:5" ht="21" customHeight="1">
       <c r="A13" s="14">
-        <v>44663</v>
+        <v>44697</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="20" t="s">
@@ -1665,7 +1675,7 @@
     </row>
     <row r="14" spans="1:5" ht="21" customHeight="1">
       <c r="A14" s="21">
-        <v>44669</v>
+        <v>44698</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="20" t="s">
@@ -1680,7 +1690,7 @@
     </row>
     <row r="15" spans="1:5" ht="21" customHeight="1">
       <c r="A15" s="14">
-        <v>44670</v>
+        <v>44701</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="20" t="s">
@@ -1695,7 +1705,7 @@
     </row>
     <row r="16" spans="1:5" ht="21" customHeight="1">
       <c r="A16" s="14">
-        <v>44676</v>
+        <v>44704</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="20" t="s">
@@ -1710,7 +1720,7 @@
     </row>
     <row r="17" spans="1:5" ht="21" customHeight="1">
       <c r="A17" s="14">
-        <v>44677</v>
+        <v>44705</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="20" t="s">
@@ -1724,18 +1734,34 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" customHeight="1">
-      <c r="A18" s="14"/>
+      <c r="A18" s="14">
+        <v>44711</v>
+      </c>
       <c r="B18" s="12"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="13"/>
+      <c r="C18" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1000</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="21" customHeight="1">
-      <c r="A19" s="11"/>
+      <c r="A19" s="14">
+        <v>44712</v>
+      </c>
       <c r="B19" s="12"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="13"/>
+      <c r="C19" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1000</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="21" customHeight="1">
       <c r="A20" s="11"/>
@@ -1788,7 +1814,7 @@
       <c r="D26" s="18"/>
       <c r="E26" s="19">
         <f>SUM(E9:E25)</f>
-        <v>9000</v>
+        <v>11000</v>
       </c>
     </row>
   </sheetData>
@@ -1798,21 +1824,26 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="E8 E22:E25">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26 E20:E21 E9:E16">
+    <cfRule type="cellIs" dxfId="4" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26 E19:E21 E9:E16">
-    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
+  <conditionalFormatting sqref="E18">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
+  <conditionalFormatting sqref="E19">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
